--- a/biology/Zoologie/Catalinia_thompsoni/Catalinia_thompsoni.xlsx
+++ b/biology/Zoologie/Catalinia_thompsoni/Catalinia_thompsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catalinia thompsoni est une espèce de scorpions de la famille des Vaejovidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1]. Elle se rencontre dans les Channel Islands de Californie sur Anacapa, Santa Cruz et Santa Rosa.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis. Elle se rencontre dans les Channel Islands de Californie sur Anacapa, Santa Cruz et Santa Rosa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 22,8 mm et les femelles de 24,1 à 27,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 22,8 mm et les femelles de 24,1 à 27,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vaejovis minimus thompsoni par Gertsch et Soleglad en 1972. Elle suit son espèce dans le genre Pseudouroctonus par Stockwell en 1992[3]. Elle est élevée au rang d'espèce et placée dans le genre Catalinia par Soleglad, Ayrey, Graham et Fet en 2017[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vaejovis minimus thompsoni par Gertsch et Soleglad en 1972. Elle suit son espèce dans le genre Pseudouroctonus par Stockwell en 1992. Elle est élevée au rang d'espèce et placée dans le genre Catalinia par Soleglad, Ayrey, Graham et Fet en 2017.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Melvin Thompson[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Melvin Thompson.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gertsch &amp; Soleglad, 1972 : « Studies of North American scorpions of the genera Uroctonus and Vejovis. » Bulletin of the American Museum of Natural History, no 148, p. 549–608 (texte intégral).</t>
         </is>
